--- a/GATEWAY/A1#111CHORUSSRLXX/CHORUS_SRL/ACCDIALAB_RIS/V2023/report-checklist.xlsx
+++ b/GATEWAY/A1#111CHORUSSRLXX/CHORUS_SRL/ACCDIALAB_RIS/V2023/report-checklist.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giovanni\Desktop\NEW CUP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\condivisa\_________________ACCREDITAMENTO FSE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E3EAC70-6492-4478-8349-D24500B94C3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -21,12 +20,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="E9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="E9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -520,15 +519,6 @@
  ‘Accesso Diretto Radiologia’</t>
   </si>
   <si>
-    <t>14:16</t>
-  </si>
-  <si>
-    <t>155107f08b148450</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.150.4.4.b2bd4a4d5963f5d165430ace95ff5a4ddf6ef29ad7aea703cd94327f28df885b.148fbb4661^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>Chorus s.r.l.</t>
   </si>
   <si>
@@ -539,33 +529,6 @@
   </si>
   <si>
     <t>subject_application_version: V2023</t>
-  </si>
-  <si>
-    <t>14:22</t>
-  </si>
-  <si>
-    <t>19ca55b64811e12d</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.150.4.4.d0dae918755f3106b6dedacac46b709f0ec9f04dea974ee2251467cb7088d377.ad6ea6fb2e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>14:29</t>
-  </si>
-  <si>
-    <t>55a9d2cb9d2f0def</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.150.4.4.76bc72e7397789f54ef126c8b834ce401cfb468b56602ba567966e553ed85f0a.61d5b42bee^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>14:50</t>
-  </si>
-  <si>
-    <t>76b55cbe89faaa90</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.150.4.4.9934262b178784667230b7082fb8d25dd3df3e6e204cf6c9793926194f8e8df8.9c473f7a1b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>07:47</t>
@@ -840,11 +803,47 @@
   <si>
     <t>2.16.840.1.113883.2.9.2.150.4.4.37cddccb3b6a8c7c52654cc032d616257a6c1b9f9fe668597d0ee0f7dff4fcf3.3752e74c15^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
+  <si>
+    <t>11:05</t>
+  </si>
+  <si>
+    <t>08f42f7b312473b1</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.b2bd4a4d5963f5d165430ace95ff5a4ddf6ef29ad7aea703cd94327f28df885b.5c57706918^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>11:06</t>
+  </si>
+  <si>
+    <t>f1c0392adc7a67f6</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.d0dae918755f3106b6dedacac46b709f0ec9f04dea974ee2251467cb7088d377.eb419a9338^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>11:07</t>
+  </si>
+  <si>
+    <t>83c6eb0334a5010c</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.76bc72e7397789f54ef126c8b834ce401cfb468b56602ba567966e553ed85f0a.612c97522d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>11:08</t>
+  </si>
+  <si>
+    <t>2861204dcd5c7051</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.9934262b178784667230b7082fb8d25dd3df3e6e204cf6c9793926194f8e8df8.c4ab21f6d3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="12">
     <font>
       <sz val="11"/>
@@ -1434,8 +1433,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1443,37 +1455,24 @@
     <xf numFmtId="1" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
-    <cellStyle name="Normale 2" xfId="1" xr:uid="{4CEF7679-60E4-42E7-9AD0-71C0DEBC44BD}"/>
-    <cellStyle name="Normale 3" xfId="2" xr:uid="{BCE2C5C8-87D9-407E-B70B-8A5CB5AAECCB}"/>
-    <cellStyle name="Normale 4" xfId="3" xr:uid="{E0301326-3BA3-4CEF-9AFC-4985015D1601}"/>
+    <cellStyle name="Normale 2" xfId="1"/>
+    <cellStyle name="Normale 3" xfId="2"/>
+    <cellStyle name="Normale 4" xfId="3"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -1526,12 +1525,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="2">
-    <tableStyle name="Sheet1-style" pivot="0" count="3" xr9:uid="{88A27C37-8D75-4317-93A7-562BB8626A75}">
+    <tableStyle name="Sheet1-style" pivot="0" count="3">
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="firstRowStripe" dxfId="4"/>
       <tableStyleElement type="secondRowStripe" dxfId="3"/>
     </tableStyle>
-    <tableStyle name="Sheet1-style 2" pivot="0" count="3" xr9:uid="{D5FC3BE3-1000-498D-B01B-4DA91CF2E7CF}">
+    <tableStyle name="Sheet1-style 2" pivot="0" count="3">
       <tableStyleElement type="headerRow" dxfId="2"/>
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
@@ -2702,11 +2701,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T880"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="265.5" customHeight="1"/>
@@ -2756,14 +2755,14 @@
       <c r="T1" s="36"/>
     </row>
     <row r="2" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="69" t="s">
-        <v>120</v>
-      </c>
-      <c r="D2" s="70"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="73" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" s="74"/>
       <c r="E2" s="40"/>
       <c r="F2" s="40"/>
       <c r="G2" s="40"/>
@@ -2782,14 +2781,14 @@
       <c r="T2" s="36"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="71" t="s">
-        <v>121</v>
-      </c>
-      <c r="D3" s="72"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="77" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="78"/>
       <c r="E3" s="40"/>
       <c r="F3" s="40"/>
       <c r="G3" s="40"/>
@@ -2808,12 +2807,12 @@
       <c r="T3" s="36"/>
     </row>
     <row r="4" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A4" s="78"/>
-      <c r="B4" s="78"/>
-      <c r="C4" s="71" t="s">
-        <v>122</v>
-      </c>
-      <c r="D4" s="72"/>
+      <c r="A4" s="76"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="77" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4" s="78"/>
       <c r="E4" s="41"/>
       <c r="F4" s="40"/>
       <c r="G4" s="40"/>
@@ -2832,12 +2831,12 @@
       <c r="T4" s="36"/>
     </row>
     <row r="5" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A5" s="78"/>
-      <c r="B5" s="78"/>
-      <c r="C5" s="71" t="s">
-        <v>123</v>
-      </c>
-      <c r="D5" s="72"/>
+      <c r="A5" s="76"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="77" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="78"/>
       <c r="E5" s="40"/>
       <c r="F5" s="40"/>
       <c r="G5" s="40"/>
@@ -2856,8 +2855,8 @@
       <c r="T5" s="36"/>
     </row>
     <row r="6" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A6" s="68"/>
-      <c r="B6" s="68"/>
+      <c r="A6" s="70"/>
+      <c r="B6" s="70"/>
       <c r="C6" s="66"/>
       <c r="D6" s="42"/>
       <c r="E6" s="33"/>
@@ -3000,16 +2999,16 @@
         <v>25</v>
       </c>
       <c r="F10" s="24">
-        <v>45233</v>
+        <v>45237</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>117</v>
+        <v>176</v>
       </c>
       <c r="H10" s="26" t="s">
-        <v>118</v>
+        <v>177</v>
       </c>
       <c r="I10" s="26" t="s">
-        <v>119</v>
+        <v>178</v>
       </c>
       <c r="J10" s="50" t="s">
         <v>26</v>
@@ -3044,16 +3043,16 @@
         <v>29</v>
       </c>
       <c r="F11" s="24">
-        <v>45233</v>
+        <v>45237</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>124</v>
+        <v>179</v>
       </c>
       <c r="H11" s="26" t="s">
-        <v>125</v>
+        <v>180</v>
       </c>
       <c r="I11" s="26" t="s">
-        <v>126</v>
+        <v>181</v>
       </c>
       <c r="J11" s="50" t="s">
         <v>26</v>
@@ -3087,16 +3086,16 @@
         <v>31</v>
       </c>
       <c r="F12" s="24">
-        <v>45233</v>
+        <v>45237</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>127</v>
+        <v>182</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>128</v>
+        <v>183</v>
       </c>
       <c r="I12" s="52" t="s">
-        <v>129</v>
+        <v>184</v>
       </c>
       <c r="J12" s="50" t="s">
         <v>26</v>
@@ -3131,16 +3130,16 @@
         <v>33</v>
       </c>
       <c r="F13" s="24">
-        <v>45233</v>
+        <v>45237</v>
       </c>
       <c r="G13" s="25" t="s">
-        <v>130</v>
+        <v>185</v>
       </c>
       <c r="H13" s="26" t="s">
-        <v>131</v>
+        <v>186</v>
       </c>
       <c r="I13" s="26" t="s">
-        <v>132</v>
+        <v>187</v>
       </c>
       <c r="J13" s="50" t="s">
         <v>26</v>
@@ -3216,13 +3215,13 @@
         <v>45235</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="I15" s="25" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="J15" s="50" t="s">
         <v>26</v>
@@ -3312,7 +3311,7 @@
         <v>35</v>
       </c>
       <c r="K17" s="26" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="L17" s="29"/>
       <c r="M17" s="29"/>
@@ -3350,7 +3349,7 @@
         <v>35</v>
       </c>
       <c r="K18" s="26" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="L18" s="29"/>
       <c r="M18" s="29"/>
@@ -3384,13 +3383,13 @@
         <v>45233</v>
       </c>
       <c r="G19" s="25" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="H19" s="26" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="I19" s="26" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="J19" s="50" t="s">
         <v>26</v>
@@ -3403,7 +3402,7 @@
         <v>35</v>
       </c>
       <c r="N19" s="28" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="O19" s="26" t="s">
         <v>26</v>
@@ -3438,13 +3437,13 @@
         <v>45233</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="H20" s="26" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="I20" s="26" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="J20" s="50" t="s">
         <v>26</v>
@@ -3457,7 +3456,7 @@
         <v>26</v>
       </c>
       <c r="N20" s="28" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="O20" s="26" t="s">
         <v>35</v>
@@ -3496,7 +3495,7 @@
         <v>35</v>
       </c>
       <c r="K21" s="26" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="L21" s="29"/>
       <c r="M21" s="29"/>
@@ -3534,7 +3533,7 @@
         <v>35</v>
       </c>
       <c r="K22" s="26" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="L22" s="29"/>
       <c r="M22" s="29"/>
@@ -3568,13 +3567,13 @@
         <v>45233</v>
       </c>
       <c r="G23" s="25" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="H23" s="26" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="I23" s="26" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="J23" s="50" t="s">
         <v>26</v>
@@ -3587,12 +3586,12 @@
         <v>26</v>
       </c>
       <c r="N23" s="28" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="O23" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="P23" s="73" t="s">
+      <c r="P23" s="68" t="s">
         <v>115</v>
       </c>
       <c r="Q23" s="29"/>
@@ -3626,7 +3625,7 @@
         <v>35</v>
       </c>
       <c r="K24" s="26" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="L24" s="29"/>
       <c r="M24" s="29"/>
@@ -3664,7 +3663,7 @@
         <v>35</v>
       </c>
       <c r="K25" s="26" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="L25" s="29"/>
       <c r="M25" s="29"/>
@@ -3701,10 +3700,10 @@
         <v>112</v>
       </c>
       <c r="H26" s="26" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="I26" s="26" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="J26" s="50" t="s">
         <v>26</v>
@@ -3717,7 +3716,7 @@
         <v>26</v>
       </c>
       <c r="N26" s="28" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="O26" s="26" t="s">
         <v>35</v>
@@ -3756,7 +3755,7 @@
         <v>35</v>
       </c>
       <c r="K27" s="26" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="L27" s="29"/>
       <c r="M27" s="29"/>
@@ -3790,13 +3789,13 @@
         <v>45233</v>
       </c>
       <c r="G28" s="25" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="H28" s="26" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="I28" s="26" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="J28" s="50" t="s">
         <v>26</v>
@@ -3809,7 +3808,7 @@
         <v>26</v>
       </c>
       <c r="N28" s="28" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="O28" s="26" t="s">
         <v>35</v>
@@ -3844,13 +3843,13 @@
         <v>45235</v>
       </c>
       <c r="G29" s="25" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="H29" s="26" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="I29" s="26" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="J29" s="50" t="s">
         <v>26</v>
@@ -3863,7 +3862,7 @@
         <v>26</v>
       </c>
       <c r="N29" s="28" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="O29" s="26" t="s">
         <v>35</v>
@@ -3898,13 +3897,13 @@
         <v>45235</v>
       </c>
       <c r="G30" s="25" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="H30" s="26" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="I30" s="26" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="J30" s="26" t="s">
         <v>26</v>
@@ -3917,7 +3916,7 @@
         <v>26</v>
       </c>
       <c r="N30" s="28" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="O30" s="26" t="s">
         <v>35</v>
@@ -3952,13 +3951,13 @@
         <v>45235</v>
       </c>
       <c r="G31" s="25" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="H31" s="26" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="I31" s="26" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="J31" s="26" t="s">
         <v>26</v>
@@ -3971,7 +3970,7 @@
         <v>26</v>
       </c>
       <c r="N31" s="28" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="O31" s="26" t="s">
         <v>35</v>
@@ -4006,13 +4005,13 @@
         <v>45235</v>
       </c>
       <c r="G32" s="25" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="H32" s="25" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="I32" s="26" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="J32" s="50" t="s">
         <v>26</v>
@@ -4025,7 +4024,7 @@
         <v>26</v>
       </c>
       <c r="N32" s="28" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="O32" s="26" t="s">
         <v>35</v>
@@ -4060,13 +4059,13 @@
         <v>45235</v>
       </c>
       <c r="G33" s="25" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="H33" s="25" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="I33" s="26" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="J33" s="50" t="s">
         <v>26</v>
@@ -4079,7 +4078,7 @@
         <v>26</v>
       </c>
       <c r="N33" s="28" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="O33" s="26" t="s">
         <v>35</v>
@@ -4114,13 +4113,13 @@
         <v>45235</v>
       </c>
       <c r="G34" s="25" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="H34" s="26" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="I34" s="26" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="J34" s="50" t="s">
         <v>26</v>
@@ -4133,7 +4132,7 @@
         <v>26</v>
       </c>
       <c r="N34" s="28" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="O34" s="26" t="s">
         <v>35</v>
@@ -4168,13 +4167,13 @@
         <v>45235</v>
       </c>
       <c r="G35" s="25" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="H35" s="26" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="I35" s="26" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="J35" s="50" t="s">
         <v>26</v>
@@ -4187,7 +4186,7 @@
         <v>26</v>
       </c>
       <c r="N35" s="28" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="O35" s="26" t="s">
         <v>35</v>
@@ -4218,7 +4217,7 @@
       <c r="M36" s="61"/>
       <c r="N36" s="60"/>
       <c r="O36" s="61"/>
-      <c r="P36" s="74"/>
+      <c r="P36" s="69"/>
       <c r="Q36" s="60"/>
       <c r="R36" s="62"/>
       <c r="S36" s="63"/>
@@ -22803,10 +22802,10 @@
     <mergeCell ref="C5:D5"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:M8 O1:O8 J10:J35 L10:M880 O10:O880" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:M8 O1:O8 J10:J35 L10:M880 O10:O880">
       <formula1>"SI,NO"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q10:Q35" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q10:Q35">
       <formula1>"PASS,FAIL"</formula1>
     </dataValidation>
   </dataValidations>
@@ -22820,7 +22819,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>

--- a/GATEWAY/A1#111CHORUSSRLXX/CHORUS_SRL/ACCDIALAB_RIS/V2023/report-checklist.xlsx
+++ b/GATEWAY/A1#111CHORUSSRLXX/CHORUS_SRL/ACCDIALAB_RIS/V2023/report-checklist.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -181,9 +181,6 @@
   <si>
     <t xml:space="preserve">
 Per questo caso di test è richiesta la  sola descrizione del comportamento a fronte di un timeout, da inserire nella colonna "J" nominata come "GESTIONE ERRORE".</t>
-  </si>
-  <si>
-    <t>In caso di timeout con il gateway il processo clinico prosegue, il referto viene prodotto. Il documento viene aggiunto in una coda dalla quale l’operatore può effettuare nuovamente l’invio una volta che il gateway torna disponibile.</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RAD_CT5_KO</t>
@@ -838,6 +835,9 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.150.4.4.9934262b178784667230b7082fb8d25dd3df3e6e204cf6c9793926194f8e8df8.c4ab21f6d3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>In caso di timeout con il gateway il processo clinico prosegue, il referto viene prodotto. Il documento viene aggiunto in una coda dalla quale il medico può effettuare nuovamente l’invio una volta che il gateway torna disponibile.</t>
   </si>
 </sst>
 </file>
@@ -2704,9 +2704,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T880"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="265.5" customHeight="1"/>
   <cols>
@@ -2760,7 +2758,7 @@
       </c>
       <c r="B2" s="72"/>
       <c r="C2" s="73" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D2" s="74"/>
       <c r="E2" s="40"/>
@@ -2786,7 +2784,7 @@
       </c>
       <c r="B3" s="76"/>
       <c r="C3" s="77" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D3" s="78"/>
       <c r="E3" s="40"/>
@@ -2810,7 +2808,7 @@
       <c r="A4" s="76"/>
       <c r="B4" s="76"/>
       <c r="C4" s="77" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D4" s="78"/>
       <c r="E4" s="41"/>
@@ -2834,7 +2832,7 @@
       <c r="A5" s="76"/>
       <c r="B5" s="76"/>
       <c r="C5" s="77" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D5" s="78"/>
       <c r="E5" s="40"/>
@@ -3002,13 +3000,13 @@
         <v>45237</v>
       </c>
       <c r="G10" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="H10" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="H10" s="26" t="s">
+      <c r="I10" s="26" t="s">
         <v>177</v>
-      </c>
-      <c r="I10" s="26" t="s">
-        <v>178</v>
       </c>
       <c r="J10" s="50" t="s">
         <v>26</v>
@@ -3046,13 +3044,13 @@
         <v>45237</v>
       </c>
       <c r="G11" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="H11" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="H11" s="26" t="s">
+      <c r="I11" s="26" t="s">
         <v>180</v>
-      </c>
-      <c r="I11" s="26" t="s">
-        <v>181</v>
       </c>
       <c r="J11" s="50" t="s">
         <v>26</v>
@@ -3089,13 +3087,13 @@
         <v>45237</v>
       </c>
       <c r="G12" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="H12" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="H12" s="25" t="s">
+      <c r="I12" s="52" t="s">
         <v>183</v>
-      </c>
-      <c r="I12" s="52" t="s">
-        <v>184</v>
       </c>
       <c r="J12" s="50" t="s">
         <v>26</v>
@@ -3133,13 +3131,13 @@
         <v>45237</v>
       </c>
       <c r="G13" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="H13" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="H13" s="26" t="s">
+      <c r="I13" s="26" t="s">
         <v>186</v>
-      </c>
-      <c r="I13" s="26" t="s">
-        <v>187</v>
       </c>
       <c r="J13" s="50" t="s">
         <v>26</v>
@@ -3171,7 +3169,7 @@
         <v>34</v>
       </c>
       <c r="E14" s="53" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F14" s="24"/>
       <c r="G14" s="25"/>
@@ -3209,19 +3207,19 @@
         <v>38</v>
       </c>
       <c r="E15" s="53" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F15" s="24">
         <v>45235</v>
       </c>
       <c r="G15" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="H15" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="H15" s="25" t="s">
+      <c r="I15" s="25" t="s">
         <v>122</v>
-      </c>
-      <c r="I15" s="25" t="s">
-        <v>123</v>
       </c>
       <c r="J15" s="50" t="s">
         <v>26</v>
@@ -3276,7 +3274,7 @@
       <c r="N16" s="27"/>
       <c r="O16" s="29"/>
       <c r="P16" s="54" t="s">
-        <v>43</v>
+        <v>187</v>
       </c>
       <c r="Q16" s="29"/>
       <c r="R16" s="26" t="s">
@@ -3298,10 +3296,10 @@
         <v>23</v>
       </c>
       <c r="D17" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="23" t="s">
         <v>44</v>
-      </c>
-      <c r="E17" s="23" t="s">
-        <v>45</v>
       </c>
       <c r="F17" s="55"/>
       <c r="G17" s="56"/>
@@ -3311,7 +3309,7 @@
         <v>35</v>
       </c>
       <c r="K17" s="26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L17" s="29"/>
       <c r="M17" s="29"/>
@@ -3336,10 +3334,10 @@
         <v>23</v>
       </c>
       <c r="D18" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="23" t="s">
         <v>46</v>
-      </c>
-      <c r="E18" s="23" t="s">
-        <v>47</v>
       </c>
       <c r="F18" s="24"/>
       <c r="G18" s="25"/>
@@ -3349,7 +3347,7 @@
         <v>35</v>
       </c>
       <c r="K18" s="26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L18" s="29"/>
       <c r="M18" s="29"/>
@@ -3374,22 +3372,22 @@
         <v>23</v>
       </c>
       <c r="D19" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="23" t="s">
         <v>48</v>
-      </c>
-      <c r="E19" s="23" t="s">
-        <v>49</v>
       </c>
       <c r="F19" s="24">
         <v>45233</v>
       </c>
       <c r="G19" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="H19" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="H19" s="26" t="s">
+      <c r="I19" s="26" t="s">
         <v>127</v>
-      </c>
-      <c r="I19" s="26" t="s">
-        <v>128</v>
       </c>
       <c r="J19" s="50" t="s">
         <v>26</v>
@@ -3402,13 +3400,13 @@
         <v>35</v>
       </c>
       <c r="N19" s="28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O19" s="26" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="P19" s="26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q19" s="29"/>
       <c r="R19" s="26"/>
@@ -3428,22 +3426,22 @@
         <v>23</v>
       </c>
       <c r="D20" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="23" t="s">
         <v>51</v>
-      </c>
-      <c r="E20" s="23" t="s">
-        <v>52</v>
       </c>
       <c r="F20" s="24">
         <v>45233</v>
       </c>
       <c r="G20" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="H20" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="H20" s="26" t="s">
+      <c r="I20" s="26" t="s">
         <v>132</v>
-      </c>
-      <c r="I20" s="26" t="s">
-        <v>133</v>
       </c>
       <c r="J20" s="50" t="s">
         <v>26</v>
@@ -3456,13 +3454,13 @@
         <v>26</v>
       </c>
       <c r="N20" s="28" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O20" s="26" t="s">
         <v>35</v>
       </c>
       <c r="P20" s="26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q20" s="29"/>
       <c r="R20" s="26"/>
@@ -3482,10 +3480,10 @@
         <v>23</v>
       </c>
       <c r="D21" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="23" t="s">
         <v>54</v>
-      </c>
-      <c r="E21" s="23" t="s">
-        <v>55</v>
       </c>
       <c r="F21" s="24"/>
       <c r="G21" s="25"/>
@@ -3495,7 +3493,7 @@
         <v>35</v>
       </c>
       <c r="K21" s="26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L21" s="29"/>
       <c r="M21" s="29"/>
@@ -3520,10 +3518,10 @@
         <v>23</v>
       </c>
       <c r="D22" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="23" t="s">
         <v>56</v>
-      </c>
-      <c r="E22" s="23" t="s">
-        <v>57</v>
       </c>
       <c r="F22" s="24"/>
       <c r="G22" s="25"/>
@@ -3533,7 +3531,7 @@
         <v>35</v>
       </c>
       <c r="K22" s="26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L22" s="29"/>
       <c r="M22" s="29"/>
@@ -3558,22 +3556,22 @@
         <v>23</v>
       </c>
       <c r="D23" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="23" t="s">
         <v>58</v>
-      </c>
-      <c r="E23" s="23" t="s">
-        <v>59</v>
       </c>
       <c r="F23" s="24">
         <v>45233</v>
       </c>
       <c r="G23" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="H23" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="H23" s="26" t="s">
+      <c r="I23" s="26" t="s">
         <v>136</v>
-      </c>
-      <c r="I23" s="26" t="s">
-        <v>137</v>
       </c>
       <c r="J23" s="50" t="s">
         <v>26</v>
@@ -3586,13 +3584,13 @@
         <v>26</v>
       </c>
       <c r="N23" s="28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O23" s="26" t="s">
         <v>35</v>
       </c>
       <c r="P23" s="68" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Q23" s="29"/>
       <c r="R23" s="26"/>
@@ -3612,10 +3610,10 @@
         <v>23</v>
       </c>
       <c r="D24" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" s="23" t="s">
         <v>60</v>
-      </c>
-      <c r="E24" s="23" t="s">
-        <v>61</v>
       </c>
       <c r="F24" s="24"/>
       <c r="G24" s="25"/>
@@ -3625,7 +3623,7 @@
         <v>35</v>
       </c>
       <c r="K24" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L24" s="29"/>
       <c r="M24" s="29"/>
@@ -3650,10 +3648,10 @@
         <v>23</v>
       </c>
       <c r="D25" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" s="23" t="s">
         <v>62</v>
-      </c>
-      <c r="E25" s="23" t="s">
-        <v>63</v>
       </c>
       <c r="F25" s="24"/>
       <c r="G25" s="25"/>
@@ -3663,7 +3661,7 @@
         <v>35</v>
       </c>
       <c r="K25" s="26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L25" s="29"/>
       <c r="M25" s="29"/>
@@ -3688,22 +3686,22 @@
         <v>23</v>
       </c>
       <c r="D26" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" s="23" t="s">
         <v>64</v>
-      </c>
-      <c r="E26" s="23" t="s">
-        <v>65</v>
       </c>
       <c r="F26" s="24">
         <v>45233</v>
       </c>
       <c r="G26" s="25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H26" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="I26" s="26" t="s">
         <v>141</v>
-      </c>
-      <c r="I26" s="26" t="s">
-        <v>142</v>
       </c>
       <c r="J26" s="50" t="s">
         <v>26</v>
@@ -3716,13 +3714,13 @@
         <v>26</v>
       </c>
       <c r="N26" s="28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O26" s="26" t="s">
         <v>35</v>
       </c>
       <c r="P26" s="26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q26" s="29"/>
       <c r="R26" s="26"/>
@@ -3742,10 +3740,10 @@
         <v>23</v>
       </c>
       <c r="D27" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" s="23" t="s">
         <v>67</v>
-      </c>
-      <c r="E27" s="23" t="s">
-        <v>68</v>
       </c>
       <c r="F27" s="24"/>
       <c r="G27" s="25"/>
@@ -3755,7 +3753,7 @@
         <v>35</v>
       </c>
       <c r="K27" s="26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L27" s="29"/>
       <c r="M27" s="29"/>
@@ -3780,22 +3778,22 @@
         <v>23</v>
       </c>
       <c r="D28" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="E28" s="23" t="s">
         <v>69</v>
-      </c>
-      <c r="E28" s="23" t="s">
-        <v>70</v>
       </c>
       <c r="F28" s="24">
         <v>45233</v>
       </c>
       <c r="G28" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="H28" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="H28" s="26" t="s">
+      <c r="I28" s="26" t="s">
         <v>146</v>
-      </c>
-      <c r="I28" s="26" t="s">
-        <v>147</v>
       </c>
       <c r="J28" s="50" t="s">
         <v>26</v>
@@ -3808,13 +3806,13 @@
         <v>26</v>
       </c>
       <c r="N28" s="28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O28" s="26" t="s">
         <v>35</v>
       </c>
       <c r="P28" s="26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q28" s="29"/>
       <c r="R28" s="26"/>
@@ -3834,22 +3832,22 @@
         <v>23</v>
       </c>
       <c r="D29" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E29" s="23" t="s">
         <v>72</v>
-      </c>
-      <c r="E29" s="23" t="s">
-        <v>73</v>
       </c>
       <c r="F29" s="24">
         <v>45235</v>
       </c>
       <c r="G29" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="H29" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="H29" s="26" t="s">
+      <c r="I29" s="26" t="s">
         <v>150</v>
-      </c>
-      <c r="I29" s="26" t="s">
-        <v>151</v>
       </c>
       <c r="J29" s="50" t="s">
         <v>26</v>
@@ -3862,13 +3860,13 @@
         <v>26</v>
       </c>
       <c r="N29" s="28" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O29" s="26" t="s">
         <v>35</v>
       </c>
       <c r="P29" s="26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q29" s="29"/>
       <c r="R29" s="26"/>
@@ -3888,22 +3886,22 @@
         <v>23</v>
       </c>
       <c r="D30" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="E30" s="23" t="s">
         <v>75</v>
-      </c>
-      <c r="E30" s="23" t="s">
-        <v>76</v>
       </c>
       <c r="F30" s="24">
         <v>45235</v>
       </c>
       <c r="G30" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="H30" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="H30" s="26" t="s">
+      <c r="I30" s="26" t="s">
         <v>154</v>
-      </c>
-      <c r="I30" s="26" t="s">
-        <v>155</v>
       </c>
       <c r="J30" s="26" t="s">
         <v>26</v>
@@ -3916,13 +3914,13 @@
         <v>26</v>
       </c>
       <c r="N30" s="28" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O30" s="26" t="s">
         <v>35</v>
       </c>
       <c r="P30" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q30" s="29"/>
       <c r="R30" s="26"/>
@@ -3942,22 +3940,22 @@
         <v>23</v>
       </c>
       <c r="D31" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="E31" s="23" t="s">
         <v>78</v>
-      </c>
-      <c r="E31" s="23" t="s">
-        <v>79</v>
       </c>
       <c r="F31" s="24">
         <v>45235</v>
       </c>
       <c r="G31" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="H31" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="H31" s="26" t="s">
+      <c r="I31" s="26" t="s">
         <v>158</v>
-      </c>
-      <c r="I31" s="26" t="s">
-        <v>159</v>
       </c>
       <c r="J31" s="26" t="s">
         <v>26</v>
@@ -3970,13 +3968,13 @@
         <v>26</v>
       </c>
       <c r="N31" s="28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O31" s="26" t="s">
         <v>35</v>
       </c>
       <c r="P31" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q31" s="29"/>
       <c r="R31" s="26"/>
@@ -3996,22 +3994,22 @@
         <v>23</v>
       </c>
       <c r="D32" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="E32" s="23" t="s">
         <v>81</v>
-      </c>
-      <c r="E32" s="23" t="s">
-        <v>82</v>
       </c>
       <c r="F32" s="24">
         <v>45235</v>
       </c>
       <c r="G32" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="H32" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="H32" s="25" t="s">
+      <c r="I32" s="26" t="s">
         <v>162</v>
-      </c>
-      <c r="I32" s="26" t="s">
-        <v>163</v>
       </c>
       <c r="J32" s="50" t="s">
         <v>26</v>
@@ -4024,13 +4022,13 @@
         <v>26</v>
       </c>
       <c r="N32" s="28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O32" s="26" t="s">
         <v>35</v>
       </c>
       <c r="P32" s="26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q32" s="29"/>
       <c r="R32" s="26"/>
@@ -4050,22 +4048,22 @@
         <v>23</v>
       </c>
       <c r="D33" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="E33" s="23" t="s">
         <v>84</v>
-      </c>
-      <c r="E33" s="23" t="s">
-        <v>85</v>
       </c>
       <c r="F33" s="24">
         <v>45235</v>
       </c>
       <c r="G33" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="H33" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="H33" s="25" t="s">
+      <c r="I33" s="26" t="s">
         <v>166</v>
-      </c>
-      <c r="I33" s="26" t="s">
-        <v>167</v>
       </c>
       <c r="J33" s="50" t="s">
         <v>26</v>
@@ -4078,13 +4076,13 @@
         <v>26</v>
       </c>
       <c r="N33" s="28" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O33" s="26" t="s">
         <v>35</v>
       </c>
       <c r="P33" s="26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q33" s="29"/>
       <c r="R33" s="26"/>
@@ -4104,22 +4102,22 @@
         <v>23</v>
       </c>
       <c r="D34" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="E34" s="23" t="s">
         <v>87</v>
-      </c>
-      <c r="E34" s="23" t="s">
-        <v>88</v>
       </c>
       <c r="F34" s="24">
         <v>45235</v>
       </c>
       <c r="G34" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="H34" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="H34" s="26" t="s">
+      <c r="I34" s="26" t="s">
         <v>170</v>
-      </c>
-      <c r="I34" s="26" t="s">
-        <v>171</v>
       </c>
       <c r="J34" s="50" t="s">
         <v>26</v>
@@ -4132,13 +4130,13 @@
         <v>26</v>
       </c>
       <c r="N34" s="28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O34" s="26" t="s">
         <v>35</v>
       </c>
       <c r="P34" s="26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q34" s="29"/>
       <c r="R34" s="26"/>
@@ -4158,22 +4156,22 @@
         <v>23</v>
       </c>
       <c r="D35" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="E35" s="23" t="s">
         <v>90</v>
-      </c>
-      <c r="E35" s="23" t="s">
-        <v>91</v>
       </c>
       <c r="F35" s="24">
         <v>45235</v>
       </c>
       <c r="G35" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="H35" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="H35" s="26" t="s">
+      <c r="I35" s="26" t="s">
         <v>174</v>
-      </c>
-      <c r="I35" s="26" t="s">
-        <v>175</v>
       </c>
       <c r="J35" s="50" t="s">
         <v>26</v>
@@ -4186,13 +4184,13 @@
         <v>26</v>
       </c>
       <c r="N35" s="28" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O35" s="26" t="s">
         <v>35</v>
       </c>
       <c r="P35" s="26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q35" s="29"/>
       <c r="R35" s="26"/>
@@ -22843,40 +22841,40 @@
         <v>3</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>92</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>93</v>
       </c>
       <c r="E1" s="7"/>
     </row>
     <row r="2" spans="1:5" ht="14.25" customHeight="1">
       <c r="A2" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="D2" s="11" t="s">
         <v>96</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>97</v>
       </c>
       <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:5" ht="14.25" customHeight="1">
       <c r="A3" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="C3" s="14" t="s">
+      <c r="D3" s="15" t="s">
         <v>99</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>100</v>
       </c>
       <c r="E3" s="7"/>
     </row>
@@ -22885,58 +22883,58 @@
         <v>23</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C4" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="16" t="s">
         <v>101</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>102</v>
       </c>
       <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:5" ht="14.25" customHeight="1">
       <c r="A5" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="C5" s="14" t="s">
+      <c r="D5" s="15" t="s">
         <v>104</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>105</v>
       </c>
       <c r="E5" s="7"/>
     </row>
     <row r="6" spans="1:5" ht="14.25" customHeight="1">
       <c r="A6" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="C6" s="14" t="s">
+      <c r="D6" s="16" t="s">
         <v>107</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>108</v>
       </c>
       <c r="E6" s="7"/>
     </row>
     <row r="7" spans="1:5" ht="14.25" customHeight="1">
       <c r="A7" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="C7" s="19" t="s">
+      <c r="D7" s="16" t="s">
         <v>110</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>111</v>
       </c>
       <c r="E7" s="7"/>
     </row>
